--- a/examples/analytical/Phosphate/model_config.Phosphate.xlsx
+++ b/examples/analytical/Phosphate/model_config.Phosphate.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="substances" sheetId="1" r:id="rId1"/>
-    <sheet name="reactions" sheetId="2" r:id="rId2"/>
-    <sheet name="adsorption" sheetId="20" r:id="rId3"/>
-    <sheet name="speciation" sheetId="3" r:id="rId4"/>
-    <sheet name="parameters" sheetId="17" r:id="rId5"/>
-    <sheet name="data" sheetId="19" r:id="rId6"/>
-    <sheet name="output" sheetId="18" r:id="rId7"/>
+    <sheet name="diffusion" sheetId="21" r:id="rId2"/>
+    <sheet name="reactions" sheetId="2" r:id="rId3"/>
+    <sheet name="adsorption" sheetId="20" r:id="rId4"/>
+    <sheet name="speciation" sheetId="3" r:id="rId5"/>
+    <sheet name="parameters" sheetId="17" r:id="rId6"/>
+    <sheet name="data" sheetId="19" r:id="rId7"/>
+    <sheet name="output" sheetId="18" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">data!$B$1:$B$3241</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">data!$B$1:$B$3241</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="120">
   <si>
     <t>type</t>
   </si>
@@ -382,9 +383,6 @@
     <t>TH3PO4_dis0</t>
   </si>
   <si>
-    <t>TH3PO4_ads0</t>
-  </si>
-  <si>
     <t>TH3PO4_dis0*K_ads</t>
   </si>
   <si>
@@ -392,6 +390,18 @@
   </si>
   <si>
     <t>formula</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>SedTrace_name</t>
+  </si>
+  <si>
+    <t>TH3PO4_ads_nsf0</t>
+  </si>
+  <si>
+    <t>HPO4{2-}</t>
   </si>
 </sst>
 </file>
@@ -796,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -822,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>38</v>
@@ -878,6 +888,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -923,7 +968,7 @@
         <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
         <v>85</v>
@@ -952,12 +997,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1026,7 +1071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
@@ -1052,7 +1097,7 @@
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1169,12 +1214,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1182,7 +1227,7 @@
     <col min="1" max="1" width="9.23046875" style="3"/>
     <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.69140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.921875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.921875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.84375" style="3" bestFit="1" customWidth="1"/>
@@ -1626,10 +1671,10 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" t="s">
         <v>113</v>
-      </c>
-      <c r="E16" t="s">
-        <v>114</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>
@@ -1795,7 +1840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F403"/>
   <sheetViews>
@@ -9074,7 +9119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>

--- a/examples/analytical/Phosphate/model_config.Phosphate.xlsx
+++ b/examples/analytical/Phosphate/model_config.Phosphate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="substances" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="121">
   <si>
     <t>type</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>speciation</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
 </sst>
 </file>
@@ -557,11 +560,11 @@
       <sheetName val="output"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1">
         <row r="5">
           <cell r="E5">
             <v>2.6</v>
@@ -588,7 +591,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
+      <sheetData sheetId="5" refreshError="1">
         <row r="203">
           <cell r="D203">
             <v>0</v>
@@ -1595,7 +1598,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1949,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1961,20 +1964,26 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>108</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1987,7 +1996,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2133,10 +2142,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2149,7 +2158,7 @@
     <col min="6" max="6" width="6.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2168,48 +2177,51 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D6" s="3"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D7" s="3"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D8" s="3"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D9" s="3"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D10" s="3"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D11" s="3"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D12" s="3"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D13" s="5"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D14" s="5"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D15" s="5"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D16" s="5"/>
       <c r="E16" s="8"/>
     </row>
@@ -2278,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2923,8 +2935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F403"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E203" sqref="E203:E403"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E276" sqref="E276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
